--- a/prueba/datos_zonas.xlsx
+++ b/prueba/datos_zonas.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Comayagüela Norte" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Colonia Kennedy" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="El Hatillo" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="San Pedro Sula Centro" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="San Pedro Sula" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,8 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,45 +33,18 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="000066CC"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F2FF"/>
-        <bgColor rgb="00E6F2FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,15 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -458,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,135 +439,627 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Latitud: 14.0723, Longitud: -87.1921</t>
+          <t>lon="-87.24557944538367" lat="14.05387498976198"</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Zona: Tegucigalpa Centro</t>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lluvia (mm)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Capacidad_Drenaje_mm_h</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Area_Metros_Cuadrados</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>6327</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3741</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9051</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2390</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>3759</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2123</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>6826</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6902</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/05/2024</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>9455</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19/05/2024</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5335</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20/05/2024</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Notas:</t>
-        </is>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- Estos datos son históricos de la zona</t>
-        </is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>- La simulación usa estos valores como referencia</t>
-        </is>
+          <t>25/05/2024</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26/05/2024</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>28/06/2024</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>29/06/2024</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>06/07/2024</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>07/07/2024</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,127 +1081,367 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Latitud: 14.0844, Longitud: -87.2067</t>
+          <t>lon="-87.2067" lat="14.0844"</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Zona: Comayagüela Norte</t>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lluvia (mm)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Capacidad_Drenaje_mm_h</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Area_Metros_Cuadrados</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>7459</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3736</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7260</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4349</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>5838</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6585</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>9188</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3130</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/05/2024</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>3400</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19/05/2024</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20/05/2024</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Notas:</t>
-        </is>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Estos datos son históricos de la zona</t>
-        </is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- La simulación usa estos valores como referencia</t>
-        </is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>25/05/2024</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26/05/2024</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,103 +1463,417 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Latitud: 14.1094, Longitud: -87.1767</t>
+          <t>lon="-87.1767" lat="14.1094"</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Zona: Colonia Kennedy</t>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lluvia (mm)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Capacidad_Drenaje_mm_h</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Area_Metros_Cuadrados</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>5394</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3401</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3416</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4241</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>5684</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7010</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/05/2024</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Notas:</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19/05/2024</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- Estos datos son históricos de la zona</t>
-        </is>
+          <t>20/05/2024</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- La simulación usa estos valores como referencia</t>
-        </is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>25/05/2024</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26/05/2024</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +1887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,119 +1895,347 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Latitud: 14.0375, Longitud: -87.1544</t>
+          <t>lon="-87.1544" lat="14.0375"</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Zona: El Hatillo</t>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lluvia (mm)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Capacidad_Drenaje_mm_h</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Area_Metros_Cuadrados</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>6912</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9598</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6935</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7319</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>5004</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7701</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>8656</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6810</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/05/2024</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19/05/2024</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20/05/2024</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Notas:</t>
-        </is>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>- Estos datos son históricos de la zona</t>
-        </is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- La simulación usa estos valores como referencia</t>
-        </is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>25/05/2024</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26/05/2024</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +2249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,127 +2257,547 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Latitud: 15.5041, Longitud: -88.025</t>
+          <t>lon="-88.025" lat="15.5041"</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Zona: San Pedro Sula Centro</t>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lluvia (mm)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Capacidad_Drenaje_mm_h</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Area_Metros_Cuadrados</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>4032</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9582</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4208</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4944</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>3285</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>10.7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9689</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>7237</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6323</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/05/2024</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>4618</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19/05/2024</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20/05/2024</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Notas:</t>
-        </is>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Estos datos son históricos de la zona</t>
-        </is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- La simulación usa estos valores como referencia</t>
-        </is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>25/05/2024</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26/05/2024</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>28/06/2024</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>29/06/2024</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
